--- a/data/Cake_club_scores_sheet_2024.xlsx
+++ b/data/Cake_club_scores_sheet_2024.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -932,7 +932,7 @@
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -967,7 +967,7 @@
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1072,7 +1072,7 @@
       <c r="A9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1107,7 +1107,7 @@
       <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1282,7 +1282,7 @@
       <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="11" t="s">
